--- a/fuelprices.xlsx
+++ b/fuelprices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucit-my.sharepoint.com/personal/jouko_teeriaho_lapinamk_fi/Documents/Työpöytä/Probability/2_Statistics/Statistics25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucit-my.sharepoint.com/personal/jouko_teeriaho_lapinamk_fi/Documents/Tiedostot/GitHub/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{17C23E18-6C08-424E-9A6E-75714FE7FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B2EAAA-DF00-4563-AE31-084E93B22AD9}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{17C23E18-6C08-424E-9A6E-75714FE7FC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE14565E-6DDF-48F4-ADE1-E97C719AE315}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="19200" windowHeight="10000" xr2:uid="{2E0E04A6-E858-429D-A294-47240510E5EA}"/>
+    <workbookView xWindow="90" yWindow="80" windowWidth="19110" windowHeight="10000" xr2:uid="{2E0E04A6-E858-429D-A294-47240510E5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="fuel price comparison" sheetId="8" r:id="rId1"/>
@@ -66,8 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="d\.m\.;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d\.m\.;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -176,13 +177,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -213,9 +214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -230,8 +231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2413000" y="641350"/>
-          <a:ext cx="5956300" cy="1765300"/>
+          <a:off x="2413000" y="660400"/>
+          <a:ext cx="6045200" cy="1974850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAB5BEE-E6B6-4D1E-97F6-D6EA31967F80}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,7 +738,7 @@
         <v>44927</v>
       </c>
       <c r="B5" s="7">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="C5" s="7">
         <v>1.9159999999999999</v>
@@ -770,7 +771,7 @@
         <v>44930</v>
       </c>
       <c r="B8" s="7">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="C8" s="7">
         <v>1.9659999999999997</v>
@@ -831,7 +832,7 @@
         <v>1.8759999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>44936</v>
       </c>
@@ -852,12 +853,8 @@
       <c r="C15" s="7">
         <v>1.8959999999999999</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>44938</v>
       </c>
@@ -867,8 +864,12 @@
       <c r="C16" s="7">
         <v>1.8959999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>44939</v>
       </c>
@@ -878,11 +879,8 @@
       <c r="C17" s="7">
         <v>1.9059999999999999</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>44940</v>
       </c>
@@ -892,21 +890,24 @@
       <c r="C18" s="7">
         <v>1.9159999999999999</v>
       </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>44941</v>
       </c>
       <c r="B19" s="7">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="C19" s="7">
         <v>1.8859999999999999</v>
       </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
@@ -968,7 +969,7 @@
         <v>44947</v>
       </c>
       <c r="B25" s="7">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="C25" s="7">
         <v>1.9059999999999999</v>
@@ -1158,7 +1159,7 @@
         <v>1.99</v>
       </c>
       <c r="C42" s="7">
-        <v>2.1160000000000001</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1169,7 +1170,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="C43" s="7">
-        <v>2.1160000000000001</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1180,7 +1181,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="C44" s="7">
-        <v>2.1160000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1419,7 +1420,7 @@
         <v>44988</v>
       </c>
       <c r="B66" s="7">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="C66" s="7">
         <v>2.0059999999999998</v>
@@ -1430,7 +1431,7 @@
         <v>44989</v>
       </c>
       <c r="B67" s="7">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="C67" s="7">
         <v>1.996</v>
@@ -1496,7 +1497,7 @@
         <v>44995</v>
       </c>
       <c r="B73" s="7">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="C73" s="7">
         <v>2.016</v>
@@ -1584,7 +1585,7 @@
         <v>45003</v>
       </c>
       <c r="B81" s="7">
-        <v>1.98</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C81" s="7">
         <v>2.016</v>
@@ -1595,7 +1596,7 @@
         <v>45004</v>
       </c>
       <c r="B82" s="7">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="C82" s="7">
         <v>1.946</v>
@@ -1606,7 +1607,7 @@
         <v>45005</v>
       </c>
       <c r="B83" s="7">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="C83" s="7">
         <v>1.9659999999999997</v>
@@ -1617,7 +1618,7 @@
         <v>45006</v>
       </c>
       <c r="B84" s="7">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="C84" s="7">
         <v>2.016</v>
@@ -1650,7 +1651,7 @@
         <v>45009</v>
       </c>
       <c r="B87" s="7">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="C87" s="7">
         <v>1.9859999999999998</v>
@@ -1672,7 +1673,7 @@
         <v>45011</v>
       </c>
       <c r="B89" s="7">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="C89" s="7">
         <v>1.976</v>
@@ -1683,7 +1684,7 @@
         <v>45012</v>
       </c>
       <c r="B90" s="7">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="C90" s="7">
         <v>1.9859999999999998</v>
@@ -1694,7 +1695,7 @@
         <v>45013</v>
       </c>
       <c r="B91" s="7">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="C91" s="7">
         <v>1.9659999999999997</v>
@@ -1716,7 +1717,7 @@
         <v>45015</v>
       </c>
       <c r="B93" s="7">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="C93" s="7">
         <v>1.996</v>
@@ -1727,7 +1728,7 @@
         <v>45016</v>
       </c>
       <c r="B94" s="7">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="C94" s="7">
         <v>1.9859999999999998</v>
@@ -1739,11 +1740,11 @@
       </c>
       <c r="B96" s="10">
         <f>AVERAGE(B5:B95)</f>
-        <v>1.9721111111111111</v>
+        <v>1.9813333333333332</v>
       </c>
       <c r="C96" s="10">
         <f>AVERAGE(C5:C95)</f>
-        <v>1.9903333333333331</v>
+        <v>1.9889111111111106</v>
       </c>
     </row>
   </sheetData>
